--- a/team_results/kalpa/xlsx_kalpa_1_played_games_data.xlsx
+++ b/team_results/kalpa/xlsx_kalpa_1_played_games_data.xlsx
@@ -475,28 +475,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>214</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>219</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>365</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>370</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>383</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>388</v>

--- a/team_results/kalpa/xlsx_kalpa_1_played_games_data.xlsx
+++ b/team_results/kalpa/xlsx_kalpa_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>182</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="n">
         <v>185</v>
@@ -2065,6 +2065,74 @@
       <c r="H48" t="inlineStr">
         <is>
           <t>saipa</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>401</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>hpk</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>409</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>kalpa</t>
         </is>
       </c>
     </row>
